--- a/Excel_Project_Dataset.xlsx
+++ b/Excel_Project_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF81BCBA-AB19-43BD-97BE-0FF31839707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E531496-EF24-41F3-A8B8-25189A1C0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId8"/>
-    <pivotCache cacheId="26" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -205,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -698,15 +698,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -756,7 +755,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,19 +928,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -998,19 +985,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4186,7 +4161,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4243,7 +4217,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4381,7 +4354,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12142,65 +12114,117 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8599CA5E-3E2E-1978-8091-C81A76AA118C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EEE850-A24F-37E8-2685-29A064A53E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="990600" y="141514"/>
-          <a:ext cx="15610114" cy="1143000"/>
+          <a:off x="914399" y="141514"/>
+          <a:ext cx="15849600" cy="7873093"/>
+          <a:chOff x="914399" y="141514"/>
+          <a:chExt cx="15849600" cy="7660327"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="38100">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8599CA5E-3E2E-1978-8091-C81A76AA118C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="990600" y="141514"/>
+            <a:ext cx="15610114" cy="1113312"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="4800" b="0" cap="none" spc="0">
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="4800" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>BIKES</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="4800" b="0" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> SALES DASHBOARD</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="4800" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -12213,590 +12237,408 @@
                 </a:outerShdw>
               </a:effectLst>
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>BIKES</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="4800" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="6" name="Chart 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6B42F7-2632-40C1-AC92-58A7DB5ACD77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="914399" y="1484417"/>
+          <a:ext cx="4495801" cy="3329048"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="7" name="Chart 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B65DF5-61E7-4A5A-9327-B1880121C23F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="936171" y="5027318"/>
+          <a:ext cx="13318673" cy="2700550"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="8" name="Chart 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9417AB-65C4-42DA-9260-6605E38C19BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5644241" y="1501831"/>
+          <a:ext cx="4404633" cy="3333404"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="9" name="Marital Status 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBB6922-3FE6-459A-8FEF-E4A68521A54F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr>
+                <a:graphicFrameLocks/>
+              </xdr:cNvGraphicFramePr>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="14445344" y="1462643"/>
+              <a:ext cx="2304000" cy="1145970"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+                <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Marital Status 1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14445344" y="1499337"/>
+                <a:ext cx="2304000" cy="1177799"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:prstClr val="white"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> SALES DASHBOARD</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="4800" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6B42F7-2632-40C1-AC92-58A7DB5ACD77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>164373</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>234044</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B65DF5-61E7-4A5A-9327-B1880121C23F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>157841</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9417AB-65C4-42DA-9260-6605E38C19BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>424544</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>290144</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Marital Status 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBB6922-3FE6-459A-8FEF-E4A68521A54F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Marital Status 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14445344" y="1502227"/>
-              <a:ext cx="2304000" cy="1175659"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100"/>
+                  <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="10" name="Education 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBA1FE3-B3B3-43B8-A2BD-1CD74597B9AC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="14434457" y="2756063"/>
+              <a:ext cx="2329542" cy="1750745"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+                <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Education 1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14434457" y="2828682"/>
+                <a:ext cx="2329542" cy="1799372"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:prstClr val="green"/>
+                <a:prstClr val="white"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100"/>
+                  <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4081</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="10" name="Education 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBA1FE3-B3B3-43B8-A2BD-1CD74597B9AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Education 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14434457" y="2830284"/>
-              <a:ext cx="2329542" cy="1800226"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="11" name="Region 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754130DA-0BEB-422D-8CB2-F179F5063662}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="14458496" y="4692362"/>
+              <a:ext cx="2286454" cy="1233054"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+                <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region 1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14458496" y="4818762"/>
+                <a:ext cx="2286454" cy="1267302"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
-                <a:prstClr val="green"/>
+                <a:prstClr val="white"/>
               </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100"/>
+                  <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>437696</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="11" name="Region 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754130DA-0BEB-422D-8CB2-F179F5063662}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14458496" y="4821012"/>
-              <a:ext cx="2286454" cy="1262742"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Graphic 17" descr="Cycling">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE4F175-83B6-DFEA-E6FB-231EBAB7EBB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2676525" y="161924"/>
-          <a:ext cx="1343025" cy="1028701"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Graphic 19" descr="Motorcycle">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492E74FA-83AB-C8FF-A117-451035457C75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14516100" y="6105525"/>
-          <a:ext cx="2190750" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94689BBD-4879-4E03-B40A-E535CA879E4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Graphic 23" descr="Bar graph with upward trend">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41882DA9-F6E7-D9F4-9585-E118D8EEC15D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13541828" y="228600"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Graphic 17" descr="Cycling">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE4F175-83B6-DFEA-E6FB-231EBAB7EBB0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2676525" y="161924"/>
+            <a:ext cx="1343025" cy="1023506"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Graphic 19" descr="Motorcycle">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492E74FA-83AB-C8FF-A117-451035457C75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14516100" y="6076950"/>
+            <a:ext cx="2190750" cy="1724891"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="22" name="Chart 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94689BBD-4879-4E03-B40A-E535CA879E4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="10265229" y="1517073"/>
+          <a:ext cx="3951514" cy="3307277"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Graphic 23" descr="Bar graph with upward trend">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41882DA9-F6E7-D9F4-9585-E118D8EEC15D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13541828" y="223652"/>
+            <a:ext cx="914400" cy="889660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12935,8 +12777,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Marital Status">
@@ -12959,7 +12801,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13013,8 +12855,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Education">
@@ -13037,7 +12879,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13091,8 +12933,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Region">
@@ -13115,7 +12957,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13262,7 +13104,7 @@
         <s v="M"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Income" numFmtId="166">
+    <cacheField name="Income" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="170000"/>
     </cacheField>
     <cacheField name="Children" numFmtId="0">
@@ -13405,7 +13247,7 @@
     <cacheField name="Gender" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Income" numFmtId="166">
+    <cacheField name="Income" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="170000"/>
     </cacheField>
     <cacheField name="Children" numFmtId="0">
@@ -45471,7 +45313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90E3B063-D9E6-49B8-9BA9-CB833AC4D17A}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90E3B063-D9E6-49B8-9BA9-CB833AC4D17A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -45489,7 +45331,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -45552,7 +45394,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
@@ -45617,7 +45459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECC73844-064E-4CD1-B029-C148F8FA04A3}" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECC73844-064E-4CD1-B029-C148F8FA04A3}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -45629,7 +45471,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -45824,7 +45666,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72395223-CC36-455A-A319-B16B4187602D}" name="PivotTable3" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72395223-CC36-455A-A319-B16B4187602D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -45836,7 +45678,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -45988,7 +45830,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{564F3E42-6807-49C7-B9D3-101BABC9D17A}" name="PivotTable8" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{564F3E42-6807-49C7-B9D3-101BABC9D17A}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -46012,7 +45854,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -46150,7 +45992,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE16A0C4-0E09-42E1-B123-7DFAD9543734}" name="PivotTable11" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE16A0C4-0E09-42E1-B123-7DFAD9543734}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -46162,7 +46004,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -46226,7 +46068,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Income" fld="3" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Sum of Income" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
@@ -46670,17 +46512,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDCD99C-414B-4383-B263-597158EDC997}">
   <dimension ref="AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="38" spans="28:28" x14ac:dyDescent="0.3">
-      <c r="AB38" s="7"/>
+      <c r="AB38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -91895,13 +91737,13 @@
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>71</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>39</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>110</v>
       </c>
     </row>
@@ -91909,13 +91751,13 @@
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>313</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>372</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>685</v>
       </c>
     </row>
@@ -91923,13 +91765,13 @@
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>135</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>70</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>205</v>
       </c>
     </row>
@@ -91937,13 +91779,13 @@
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>519</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>481</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>1000</v>
       </c>
     </row>
@@ -91995,13 +91837,13 @@
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>166</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>366</v>
       </c>
     </row>
@@ -92009,13 +91851,13 @@
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>78</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>33</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>111</v>
       </c>
     </row>
@@ -92023,13 +91865,13 @@
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>92</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>77</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>169</v>
       </c>
     </row>
@@ -92037,13 +91879,13 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>67</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>95</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>162</v>
       </c>
     </row>
@@ -92051,13 +91893,13 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>116</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>76</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>192</v>
       </c>
     </row>
@@ -92065,13 +91907,13 @@
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>519</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>481</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>1000</v>
       </c>
     </row>
@@ -92115,7 +91957,7 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>300</v>
       </c>
       <c r="D4" t="str">
@@ -92131,7 +91973,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>508</v>
       </c>
       <c r="D5" t="str">
@@ -92147,7 +91989,7 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>192</v>
       </c>
       <c r="D6" t="str">
